--- a/Configs/Buff/buff_ct.xlsx
+++ b/Configs/Buff/buff_ct.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18360" activeTab="1"/>
+    <workbookView windowHeight="18360"/>
   </bookViews>
   <sheets>
     <sheet name="buff_ct" sheetId="1" r:id="rId1"/>
@@ -28,15 +28,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
-    <t>id</t>
+    <t>buff_id</t>
   </si>
   <si>
     <t>buff_name</t>
   </si>
   <si>
     <t>buff_val</t>
+  </si>
+  <si>
+    <t>buff_level</t>
   </si>
   <si>
     <t>int</t>
@@ -48,106 +51,25 @@
     <t>float</t>
   </si>
   <si>
-    <t>固定加攻</t>
+    <t>固定加攻1</t>
   </si>
   <si>
-    <t>百分比加攻</t>
+    <t>固定加攻2</t>
   </si>
   <si>
-    <t>固定加血</t>
-  </si>
-  <si>
-    <t>百分比加血</t>
-  </si>
-  <si>
-    <t>固定加防御</t>
-  </si>
-  <si>
-    <t>百分比加防御</t>
-  </si>
-  <si>
-    <t>固定加速度</t>
-  </si>
-  <si>
-    <t>百分比加速度</t>
-  </si>
-  <si>
-    <t>固定回复</t>
-  </si>
-  <si>
-    <t>百分比回复</t>
-  </si>
-  <si>
-    <t>固定加暴击</t>
-  </si>
-  <si>
-    <t>固定加暴击抗性</t>
-  </si>
-  <si>
-    <t>固定加暴击伤害</t>
-  </si>
-  <si>
-    <t>固定加命中率</t>
-  </si>
-  <si>
-    <t>固定加闪避率</t>
-  </si>
-  <si>
-    <t>回合开始闪电</t>
-  </si>
-  <si>
-    <t>触发冷却回合数变化</t>
-  </si>
-  <si>
-    <t>触发次数变化</t>
-  </si>
-  <si>
-    <t>触发倍率变化</t>
-  </si>
-  <si>
-    <t>回合开始火球</t>
-  </si>
-  <si>
-    <t>回合结束受到伤害</t>
-  </si>
-  <si>
-    <t>攻击后附加冰冻</t>
-  </si>
-  <si>
-    <t>跳过当前回合</t>
-  </si>
-  <si>
-    <t>回合结束藤曼</t>
-  </si>
-  <si>
-    <t>回合结束回血</t>
-  </si>
-  <si>
-    <t>触发概率增加</t>
-  </si>
-  <si>
-    <t>最大层数增加</t>
-  </si>
-  <si>
-    <t>单次层数增加</t>
-  </si>
-  <si>
-    <t>回合开始水流</t>
-  </si>
-  <si>
-    <t>受到普攻伤害岩石攻击</t>
-  </si>
-  <si>
-    <t>持续回合数变化</t>
-  </si>
-  <si>
-    <t>吸血</t>
+    <t>id</t>
   </si>
   <si>
     <t>effect_name</t>
   </si>
   <si>
     <t>effect_val</t>
+  </si>
+  <si>
+    <t>固定加攻</t>
+  </si>
+  <si>
+    <t>百分比加攻</t>
   </si>
 </sst>
 </file>
@@ -618,155 +540,156 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1300,18 +1223,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="C4" sqref="A1:C4"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="A6" sqref="$A6:$XFD53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
-    <col min="3" max="3" width="80.625" customWidth="1"/>
+    <col min="1" max="1" width="36.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="37.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="80.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1321,275 +1247,58 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
+    <row r="4" spans="1:4">
+      <c r="A4">
         <v>101</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>102</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
+      <c r="C4">
+        <v>0.5</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:4">
       <c r="A5">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
-        <v>202</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
-        <v>301</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
-        <v>302</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
-        <v>401</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
-        <v>402</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
-        <v>501</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12">
-        <v>502</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13">
-        <v>601</v>
-      </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14">
-        <v>701</v>
-      </c>
-      <c r="B14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15">
-        <v>801</v>
-      </c>
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16">
-        <v>901</v>
-      </c>
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17">
-        <v>1001</v>
-      </c>
-      <c r="B17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18">
-        <v>1103</v>
-      </c>
-      <c r="B18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19">
-        <v>1201</v>
-      </c>
-      <c r="B19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20">
-        <v>1301</v>
-      </c>
-      <c r="B20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21">
-        <v>1401</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22">
-        <v>1503</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23">
-        <v>1604</v>
-      </c>
-      <c r="B23" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24">
-        <v>1703</v>
-      </c>
-      <c r="B24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25">
-        <v>1804</v>
-      </c>
-      <c r="B25" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26">
-        <v>1903</v>
-      </c>
-      <c r="B26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27">
-        <v>2004</v>
-      </c>
-      <c r="B27" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28">
-        <v>2101</v>
-      </c>
-      <c r="B28" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29">
-        <v>2201</v>
-      </c>
-      <c r="B29" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30">
-        <v>2301</v>
-      </c>
-      <c r="B30" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31">
-        <v>2401</v>
-      </c>
-      <c r="B31" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32">
-        <v>2501</v>
-      </c>
-      <c r="B32" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33">
-        <v>2601</v>
-      </c>
-      <c r="B33" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34">
-        <v>3001</v>
-      </c>
-      <c r="B34" t="s">
-        <v>37</v>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1601,59 +1310,64 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="74.625" customWidth="1"/>
-    <col min="3" max="3" width="82.75" customWidth="1"/>
+    <col min="2" max="2" width="74.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="82.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
+    <row r="2" spans="1:1">
+      <c r="A2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3">
-        <v>101</v>
+      <c r="A3" t="s">
+        <v>4</v>
       </c>
       <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
-      </c>
-      <c r="C3">
-        <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
+        <v>101</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
         <v>102</v>
       </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
         <v>0.7</v>
       </c>
     </row>
